--- a/data/IEA-15MW-240-RWT_steady_state_results.xlsx
+++ b/data/IEA-15MW-240-RWT_steady_state_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\IEAtask49_deepDesign\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058B8080-49FD-443F-B6D6-6726FFD439DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C8E178-15E2-4E71-9486-13FF602F366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fast_noTower" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RtFldFxh_[kN]</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Wind1VelX_[m/s]</t>
+  </si>
+  <si>
+    <t>RotThrust_[kN]</t>
+  </si>
+  <si>
+    <t>RotTorq_[kN-m]</t>
+  </si>
+  <si>
+    <t>RtSpeed_[rpm]</t>
   </si>
 </sst>
 </file>
@@ -892,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C683EC88-32F6-400B-BCA5-13D3675FD796}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,7 +917,7 @@
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -916,476 +925,721 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>2.9999998309999998</v>
+      </c>
+      <c r="B2">
+        <v>5.0002718240000004</v>
+      </c>
+      <c r="C2">
+        <v>512.46082339999998</v>
+      </c>
+      <c r="D2">
+        <v>77.054368220000001</v>
+      </c>
+      <c r="E2">
+        <v>38.631433319999999</v>
+      </c>
+      <c r="F2">
+        <v>77.043764920000001</v>
+      </c>
+      <c r="G2">
+        <v>3.437758981</v>
+      </c>
+      <c r="H2">
+        <v>230.8239993</v>
+      </c>
+      <c r="I2">
+        <v>5.0002723739999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>4.9999894817619701</v>
-      </c>
-      <c r="C2">
-        <v>581.28558929765904</v>
-      </c>
-      <c r="D2">
-        <v>1159.2668843623301</v>
-      </c>
-      <c r="E2">
-        <v>3.43625868617299</v>
-      </c>
-      <c r="F2">
-        <v>371.101307087122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5.0000001685899598</v>
-      </c>
       <c r="B3">
-        <v>5.0000265290128398</v>
+        <v>5.0000320440000001</v>
       </c>
       <c r="C3">
-        <v>1470.01479542793</v>
+        <v>653.25011489999997</v>
       </c>
       <c r="D3">
-        <v>2931.96394944043</v>
+        <v>1162.679854</v>
       </c>
       <c r="E3">
-        <v>2.74714692690883</v>
+        <v>582.91115330000002</v>
       </c>
       <c r="F3">
-        <v>572.21105124960002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1162.60968</v>
+      </c>
+      <c r="G3">
+        <v>3.437758981</v>
+      </c>
+      <c r="H3">
+        <v>371.61444590000002</v>
+      </c>
+      <c r="I3">
+        <v>5.0000331449999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5.99999966282006</v>
+        <v>5.0000001689999998</v>
       </c>
       <c r="B4">
-        <v>5.0000088900849198</v>
+        <v>5.0000112520000002</v>
       </c>
       <c r="C4">
-        <v>2763.7582609133201</v>
+        <v>854.58124750000002</v>
       </c>
       <c r="D4">
-        <v>5512.2360127653501</v>
+        <v>2934.4599579999999</v>
       </c>
       <c r="E4">
-        <v>1.41248983478546</v>
+        <v>1471.3259370000001</v>
       </c>
       <c r="F4">
-        <v>831.42972903161899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2934.5315270000001</v>
+      </c>
+      <c r="G4">
+        <v>2.7410350710000002</v>
+      </c>
+      <c r="H4">
+        <v>572.94405919999997</v>
+      </c>
+      <c r="I4">
+        <v>5.000011411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6.9999998314100296</v>
+        <v>5.9999996629999997</v>
       </c>
       <c r="B5">
-        <v>5.0293097012523802</v>
+        <v>5.0000186959999997</v>
       </c>
       <c r="C5">
-        <v>4481.2057363683598</v>
+        <v>1113.33501</v>
       </c>
       <c r="D5">
-        <v>8885.7179983776605</v>
+        <v>5514.0209919999998</v>
       </c>
       <c r="E5">
-        <v>4.0025174650487001E-2</v>
+        <v>2764.6232970000001</v>
       </c>
       <c r="F5">
-        <v>1106.9845039737199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5513.9736389999998</v>
+      </c>
+      <c r="G5">
+        <v>1.4119457360000001</v>
+      </c>
+      <c r="H5">
+        <v>831.69823670000005</v>
+      </c>
+      <c r="I5">
+        <v>5.0000188269999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>6.9999998310000002</v>
+      </c>
+      <c r="B6">
+        <v>5.028701796</v>
+      </c>
+      <c r="C6">
+        <v>1388.7371860000001</v>
+      </c>
+      <c r="D6">
+        <v>8888.7728590000006</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4482.2263270000003</v>
+      </c>
+      <c r="F6">
+        <v>8888.7750660000002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>1107.100383</v>
+      </c>
+      <c r="I6">
+        <v>5.0287019429999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>5.7446130435072398</v>
-      </c>
-      <c r="C6">
-        <v>6684.4096329612903</v>
-      </c>
-      <c r="D6">
-        <v>11604.010099449701</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.01192501500715E-6</v>
-      </c>
-      <c r="F6">
-        <v>1448.4844901871299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9.0000001685899598</v>
-      </c>
       <c r="B7">
-        <v>6.4526379584122804</v>
+        <v>5.7440700380000003</v>
       </c>
       <c r="C7">
-        <v>9479.3810226291698</v>
+        <v>1730.2497920000001</v>
       </c>
       <c r="D7">
-        <v>14650.3809765602</v>
+        <v>11606.161770000001</v>
       </c>
       <c r="E7" s="1">
-        <v>7.8844754244315492E-6</v>
+        <v>6684.9952679999997</v>
       </c>
       <c r="F7">
-        <v>1826.03356187436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11606.16756</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-7.6399999999999997E-6</v>
+      </c>
+      <c r="H7">
+        <v>1448.6130189999999</v>
+      </c>
+      <c r="I7">
+        <v>5.7440701599999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10.0000003371799</v>
+        <v>9.0000001689999998</v>
       </c>
       <c r="B8">
-        <v>7.1613816828949597</v>
+        <v>6.4519610570000001</v>
       </c>
       <c r="C8">
-        <v>12666.6429232188</v>
+        <v>2107.4991770000001</v>
       </c>
       <c r="D8">
-        <v>17638.843135491999</v>
+        <v>14649.907310000001</v>
       </c>
       <c r="E8">
-        <v>1.5579916552976101</v>
+        <v>9478.0924240000004</v>
       </c>
       <c r="F8">
-        <v>2022.9262100124699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14649.917939999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-5.0462199999999998E-6</v>
+      </c>
+      <c r="H8">
+        <v>1825.8624709999999</v>
+      </c>
+      <c r="I8">
+        <v>6.4519612390000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10.589999816236899</v>
+        <v>10.00000034</v>
       </c>
       <c r="B9">
-        <v>7.5599358879459899</v>
+        <v>7.1597231030000001</v>
       </c>
       <c r="C9">
-        <v>14240.480842426399</v>
+        <v>2303.3004569999998</v>
       </c>
       <c r="D9">
-        <v>18785.031148226499</v>
+        <v>17634.635490000001</v>
       </c>
       <c r="E9">
-        <v>2.9111758822484499</v>
+        <v>12660.68442</v>
       </c>
       <c r="F9">
-        <v>2027.71350746033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17634.631949999999</v>
+      </c>
+      <c r="G9">
+        <v>1.560520336</v>
+      </c>
+      <c r="H9">
+        <v>2021.663771</v>
+      </c>
+      <c r="I9">
+        <v>7.1597232630000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10.999999831409999</v>
+        <v>10.589999819999999</v>
       </c>
       <c r="B10">
-        <v>7.5599871929594604</v>
+        <v>7.559910575</v>
       </c>
       <c r="C10">
-        <v>14999.9751432998</v>
+        <v>2310.5712520000002</v>
       </c>
       <c r="D10">
-        <v>19786.769272776401</v>
+        <v>18787.22033</v>
       </c>
       <c r="E10">
-        <v>3.77633745274251</v>
+        <v>14242.090340000001</v>
       </c>
       <c r="F10">
-        <v>1968.96379041416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18787.217499999999</v>
+      </c>
+      <c r="G10">
+        <v>2.8997838759999999</v>
+      </c>
+      <c r="H10">
+        <v>2028.9344599999999</v>
+      </c>
+      <c r="I10">
+        <v>7.559910694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11.999999325640101</v>
+        <v>10.99999983</v>
       </c>
       <c r="B11">
-        <v>7.5599866452022804</v>
+        <v>7.5599877309999997</v>
       </c>
       <c r="C11">
-        <v>14999.9735366035</v>
+        <v>2251.0147630000001</v>
       </c>
       <c r="D11">
-        <v>19786.770467010501</v>
+        <v>19786.771970000002</v>
       </c>
       <c r="E11">
-        <v>6.5895432538680696</v>
+        <v>14999.971809999999</v>
       </c>
       <c r="F11">
-        <v>1658.23217497975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.77018</v>
+      </c>
+      <c r="G11">
+        <v>3.7706699920000002</v>
+      </c>
+      <c r="H11">
+        <v>1969.380977</v>
+      </c>
+      <c r="I11">
+        <v>7.5599877280000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12.99999949423</v>
+        <v>11.99999933</v>
       </c>
       <c r="B12">
-        <v>7.5599869700625799</v>
+        <v>7.5599874649999999</v>
       </c>
       <c r="C12">
-        <v>14999.9734496071</v>
+        <v>1939.9314099999999</v>
       </c>
       <c r="D12">
-        <v>19786.769191042498</v>
+        <v>19786.662100000001</v>
       </c>
       <c r="E12">
-        <v>8.5839988043456898</v>
+        <v>14999.97478</v>
       </c>
       <c r="F12">
-        <v>1473.8851797418299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769619999999</v>
+      </c>
+      <c r="G12">
+        <v>6.5876565119999997</v>
+      </c>
+      <c r="H12">
+        <v>1658.2984369999999</v>
+      </c>
+      <c r="I12">
+        <v>7.5599875829999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13.999999662820001</v>
+        <v>12.99999949</v>
       </c>
       <c r="B13">
-        <v>7.5599851339526003</v>
+        <v>7.5599862719999997</v>
       </c>
       <c r="C13">
-        <v>14999.972524193099</v>
+        <v>1755.4822180000001</v>
       </c>
       <c r="D13">
-        <v>19786.7699624944</v>
+        <v>19786.667030000001</v>
       </c>
       <c r="E13">
-        <v>10.254678420324</v>
+        <v>14999.97309</v>
       </c>
       <c r="F13">
-        <v>1340.47445905374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769349999999</v>
+      </c>
+      <c r="G13">
+        <v>8.5832892780000005</v>
+      </c>
+      <c r="H13">
+        <v>1473.845701</v>
+      </c>
+      <c r="I13">
+        <v>7.559986146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14.999999831409999</v>
+        <v>13.99999966</v>
       </c>
       <c r="B14">
-        <v>7.5599885943187202</v>
+        <v>7.5599862560000002</v>
       </c>
       <c r="C14">
-        <v>14999.9716686021</v>
+        <v>1622.0139650000001</v>
       </c>
       <c r="D14">
-        <v>19786.769061839601</v>
+        <v>19786.822520000002</v>
       </c>
       <c r="E14">
-        <v>11.7387505267126</v>
+        <v>14999.97373</v>
       </c>
       <c r="F14">
-        <v>1236.7094624250501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.770469999999</v>
+      </c>
+      <c r="G14">
+        <v>10.254888060000001</v>
+      </c>
+      <c r="H14">
+        <v>1340.3774780000001</v>
+      </c>
+      <c r="I14">
+        <v>7.5599862619999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>14.99999983</v>
+      </c>
+      <c r="B15">
+        <v>7.5599840829999998</v>
+      </c>
+      <c r="C15">
+        <v>1518.2024919999999</v>
+      </c>
+      <c r="D15">
+        <v>19786.701700000001</v>
+      </c>
+      <c r="E15">
+        <v>14999.96989</v>
+      </c>
+      <c r="F15">
+        <v>19786.770499999999</v>
+      </c>
+      <c r="G15">
+        <v>11.73940962</v>
+      </c>
+      <c r="H15">
+        <v>1236.5666699999999</v>
+      </c>
+      <c r="I15">
+        <v>7.5599841530000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>7.5599846319828403</v>
-      </c>
-      <c r="C15">
-        <v>14999.976325821999</v>
-      </c>
-      <c r="D15">
-        <v>19786.7692377067</v>
-      </c>
-      <c r="E15">
-        <v>13.098036104337501</v>
-      </c>
-      <c r="F15">
-        <v>1152.7946721580299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>17.000000168589899</v>
-      </c>
       <c r="B16">
-        <v>7.5599875377292598</v>
+        <v>7.5599850420000001</v>
       </c>
       <c r="C16">
-        <v>14999.9703176522</v>
+        <v>1434.209789</v>
       </c>
       <c r="D16">
-        <v>19786.768646486002</v>
+        <v>19786.732189999999</v>
       </c>
       <c r="E16">
-        <v>14.366083874946201</v>
+        <v>14999.966</v>
       </c>
       <c r="F16">
-        <v>1083.7277983050201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769830000001</v>
+      </c>
+      <c r="G16">
+        <v>13.099067440000001</v>
+      </c>
+      <c r="H16">
+        <v>1152.575542</v>
+      </c>
+      <c r="I16">
+        <v>7.559985524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>18.000000337179898</v>
+        <v>17.00000017</v>
       </c>
       <c r="B17">
-        <v>7.5599892524312402</v>
+        <v>7.5599876579999998</v>
       </c>
       <c r="C17">
-        <v>14999.971604480599</v>
+        <v>1365.0881690000001</v>
       </c>
       <c r="D17">
-        <v>19786.769510237998</v>
+        <v>19786.774219999999</v>
       </c>
       <c r="E17">
-        <v>15.5630716954063</v>
+        <v>14999.975350000001</v>
       </c>
       <c r="F17">
-        <v>1025.6068987844801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769540000001</v>
+      </c>
+      <c r="G17">
+        <v>14.36743165</v>
+      </c>
+      <c r="H17">
+        <v>1083.449666</v>
+      </c>
+      <c r="I17">
+        <v>7.5599881179999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>19.000000505769901</v>
+        <v>18.00000034</v>
       </c>
       <c r="B18">
-        <v>7.5599832316036997</v>
+        <v>7.5599899759999998</v>
       </c>
       <c r="C18">
-        <v>14999.9878802775</v>
+        <v>1306.8768620000001</v>
       </c>
       <c r="D18">
-        <v>19786.769127694199</v>
+        <v>19786.77637</v>
       </c>
       <c r="E18">
-        <v>16.702238033027999</v>
+        <v>14999.96515</v>
       </c>
       <c r="F18">
-        <v>975.982013053223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769749999999</v>
+      </c>
+      <c r="G18">
+        <v>15.56459276</v>
+      </c>
+      <c r="H18">
+        <v>1025.239388</v>
+      </c>
+      <c r="I18">
+        <v>7.5599898129999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20.0000006743598</v>
+        <v>19.00000051</v>
       </c>
       <c r="B19">
-        <v>7.5599867254744204</v>
+        <v>7.5599857630000002</v>
       </c>
       <c r="C19">
-        <v>14999.974758263699</v>
+        <v>1257.200826</v>
       </c>
       <c r="D19">
-        <v>19786.769171028998</v>
+        <v>19786.743460000002</v>
       </c>
       <c r="E19">
-        <v>17.793348188990301</v>
+        <v>14999.97207</v>
       </c>
       <c r="F19">
-        <v>933.089265817144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.76902</v>
+      </c>
+      <c r="G19">
+        <v>16.703864209999999</v>
+      </c>
+      <c r="H19">
+        <v>975.56280330000004</v>
+      </c>
+      <c r="I19">
+        <v>7.5599859629999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20.99999949423</v>
+        <v>20.000000669999999</v>
       </c>
       <c r="B20">
-        <v>7.5599896151220198</v>
+        <v>7.5599837320000001</v>
       </c>
       <c r="C20">
-        <v>14999.9927571801</v>
+        <v>1214.287327</v>
       </c>
       <c r="D20">
-        <v>19786.768544400598</v>
+        <v>19786.767339999999</v>
       </c>
       <c r="E20">
-        <v>18.8417562797109</v>
+        <v>14999.979880000001</v>
       </c>
       <c r="F20">
-        <v>895.74060270711095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769820000001</v>
+      </c>
+      <c r="G20">
+        <v>17.79492759</v>
+      </c>
+      <c r="H20">
+        <v>932.64970259999996</v>
+      </c>
+      <c r="I20">
+        <v>7.559984043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21.999999662819999</v>
+        <v>20.99999949</v>
       </c>
       <c r="B21">
-        <v>7.5599894063697004</v>
+        <v>7.5599785549999998</v>
       </c>
       <c r="C21">
-        <v>14999.968020324201</v>
+        <v>1176.8586049999999</v>
       </c>
       <c r="D21">
-        <v>19786.768500884202</v>
+        <v>19786.735089999998</v>
       </c>
       <c r="E21">
-        <v>19.854482794367001</v>
+        <v>14999.97531</v>
       </c>
       <c r="F21">
-        <v>863.13572184332202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769079999998</v>
+      </c>
+      <c r="G21">
+        <v>18.843485470000001</v>
+      </c>
+      <c r="H21">
+        <v>895.22279890000004</v>
+      </c>
+      <c r="I21">
+        <v>7.5599787589999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>23.000001180129701</v>
+        <v>21.99999966</v>
       </c>
       <c r="B22">
-        <v>7.5599817650316501</v>
+        <v>7.5599850990000004</v>
       </c>
       <c r="C22">
-        <v>14999.968721233001</v>
+        <v>1144.148375</v>
       </c>
       <c r="D22">
-        <v>19786.769899186798</v>
+        <v>19786.754229999999</v>
       </c>
       <c r="E22">
-        <v>20.8338264283272</v>
+        <v>14999.98523</v>
       </c>
       <c r="F22">
-        <v>834.39366401667803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.769479999999</v>
+      </c>
+      <c r="G22">
+        <v>19.855808499999998</v>
+      </c>
+      <c r="H22">
+        <v>862.51147560000004</v>
+      </c>
+      <c r="I22">
+        <v>7.5599854850000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23.999998651280201</v>
+        <v>23.000001180000002</v>
       </c>
       <c r="B23">
-        <v>7.5599852677801298</v>
+        <v>7.559985341</v>
       </c>
       <c r="C23">
-        <v>14999.9747655017</v>
+        <v>1115.3542199999999</v>
       </c>
       <c r="D23">
-        <v>19786.7692535104</v>
+        <v>19786.760060000001</v>
       </c>
       <c r="E23">
-        <v>21.784348888800299</v>
+        <v>14999.96852</v>
       </c>
       <c r="F23">
-        <v>809.18872525730001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19786.77018</v>
+      </c>
+      <c r="G23">
+        <v>20.835390950000001</v>
+      </c>
+      <c r="H23">
+        <v>833.7199359</v>
+      </c>
+      <c r="I23">
+        <v>7.5599853220000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24.9999988198702</v>
+        <v>23.999998649999998</v>
       </c>
       <c r="B24">
-        <v>7.5599793129463304</v>
+        <v>7.5599819979999996</v>
       </c>
       <c r="C24">
-        <v>14999.9460979588</v>
+        <v>1090.0686989999999</v>
       </c>
       <c r="D24">
-        <v>19786.768689291799</v>
+        <v>19786.769420000001</v>
       </c>
       <c r="E24">
-        <v>22.7080048728691</v>
+        <v>14999.95674</v>
       </c>
       <c r="F24">
-        <v>786.91585729378801</v>
+        <v>19786.768950000001</v>
+      </c>
+      <c r="G24">
+        <v>21.785495090000001</v>
+      </c>
+      <c r="H24">
+        <v>808.43167459999995</v>
+      </c>
+      <c r="I24">
+        <v>7.5599821719999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24.999998819999998</v>
+      </c>
+      <c r="B25">
+        <v>7.5599828039999997</v>
+      </c>
+      <c r="C25">
+        <v>1067.7428600000001</v>
+      </c>
+      <c r="D25">
+        <v>19786.76483</v>
+      </c>
+      <c r="E25">
+        <v>14999.967060000001</v>
+      </c>
+      <c r="F25">
+        <v>19786.76799</v>
+      </c>
+      <c r="G25">
+        <v>22.709160300000001</v>
+      </c>
+      <c r="H25">
+        <v>786.10343950000004</v>
+      </c>
+      <c r="I25">
+        <v>7.559983033</v>
       </c>
     </row>
   </sheetData>
